--- a/insezacweb/assets/files/beneficiarios.xlsx
+++ b/insezacweb/assets/files/beneficiarios.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="114">
   <si>
     <t>CURP</t>
   </si>
@@ -345,13 +345,34 @@
   </si>
   <si>
     <t>320010017</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>example@hotmail.com</t>
+  </si>
+  <si>
+    <t>Fecha Nacimiento</t>
+  </si>
+  <si>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t>Perfil SocioDemografico</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Clave Municipio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +417,14 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -451,11 +480,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -481,8 +511,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -762,46 +794,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AN1" sqref="AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
-    <col min="13" max="13" width="24.7109375" customWidth="1"/>
-    <col min="14" max="14" width="24.28515625" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.5703125" customWidth="1"/>
-    <col min="22" max="22" width="24.7109375" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" customWidth="1"/>
-    <col min="24" max="24" width="16.140625" customWidth="1"/>
-    <col min="25" max="25" width="18.28515625" customWidth="1"/>
-    <col min="26" max="26" width="17.42578125" customWidth="1"/>
-    <col min="27" max="27" width="17" customWidth="1"/>
-    <col min="28" max="28" width="16.7109375" customWidth="1"/>
-    <col min="29" max="29" width="17.28515625" customWidth="1"/>
-    <col min="30" max="30" width="17.85546875" customWidth="1"/>
-    <col min="31" max="31" width="15.7109375" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" customWidth="1"/>
-    <col min="33" max="33" width="18" customWidth="1"/>
+    <col min="3" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" customWidth="1"/>
+    <col min="23" max="23" width="24.7109375" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" customWidth="1"/>
+    <col min="25" max="25" width="16.140625" customWidth="1"/>
+    <col min="26" max="26" width="18.28515625" customWidth="1"/>
+    <col min="27" max="27" width="17.42578125" customWidth="1"/>
+    <col min="28" max="28" width="17" customWidth="1"/>
+    <col min="29" max="29" width="16.7109375" customWidth="1"/>
+    <col min="30" max="30" width="17.28515625" customWidth="1"/>
+    <col min="31" max="31" width="17.85546875" customWidth="1"/>
+    <col min="32" max="32" width="15.7109375" customWidth="1"/>
+    <col min="33" max="33" width="15.5703125" customWidth="1"/>
+    <col min="34" max="34" width="25.28515625" customWidth="1"/>
+    <col min="35" max="35" width="20.42578125" customWidth="1"/>
+    <col min="36" max="36" width="17.140625" customWidth="1"/>
+    <col min="37" max="37" width="16.140625" customWidth="1"/>
+    <col min="38" max="38" width="23.7109375" customWidth="1"/>
+    <col min="39" max="39" width="18.5703125" customWidth="1"/>
+    <col min="40" max="40" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -901,8 +939,26 @@
       <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" ht="24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -1002,8 +1058,16 @@
       <c r="AG2" s="4">
         <v>2</v>
       </c>
+      <c r="AH2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
@@ -1103,8 +1167,16 @@
       <c r="AG3" s="4">
         <v>2</v>
       </c>
+      <c r="AH3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
     </row>
-    <row r="4" spans="1:33" ht="24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>45</v>
       </c>
@@ -1204,8 +1276,16 @@
       <c r="AG4" s="4">
         <v>2</v>
       </c>
+      <c r="AH4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
     </row>
-    <row r="5" spans="1:33" ht="24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="36" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>51</v>
       </c>
@@ -1305,8 +1385,16 @@
       <c r="AG5" s="4">
         <v>2</v>
       </c>
+      <c r="AH5" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
     </row>
-    <row r="6" spans="1:33" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="36" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
@@ -1406,8 +1494,16 @@
       <c r="AG6" s="4">
         <v>2</v>
       </c>
+      <c r="AH6" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
     </row>
-    <row r="7" spans="1:33" ht="24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
@@ -1507,8 +1603,16 @@
       <c r="AG7" s="4">
         <v>2</v>
       </c>
+      <c r="AH7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
     </row>
-    <row r="8" spans="1:33" ht="24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="48" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>68</v>
       </c>
@@ -1608,8 +1712,16 @@
       <c r="AG8" s="4">
         <v>2</v>
       </c>
+      <c r="AH8" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
     </row>
-    <row r="9" spans="1:33" ht="24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="48" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>73</v>
       </c>
@@ -1709,8 +1821,16 @@
       <c r="AG9" s="4">
         <v>2</v>
       </c>
+      <c r="AH9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
     </row>
-    <row r="10" spans="1:33" ht="24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>79</v>
       </c>
@@ -1810,8 +1930,16 @@
       <c r="AG10" s="4">
         <v>2</v>
       </c>
+      <c r="AH10" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
     </row>
-    <row r="11" spans="1:33" ht="24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>84</v>
       </c>
@@ -1911,12 +2039,24 @@
       <c r="AG11" s="4">
         <v>2</v>
       </c>
+      <c r="AH11" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="K12" s="7"/>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="L12" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AH2" r:id="rId1"/>
+    <hyperlink ref="AH3:AH11" r:id="rId2" display="example@hotmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/insezacweb/assets/files/beneficiarios.xlsx
+++ b/insezacweb/assets/files/beneficiarios.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,14 +405,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -483,9 +475,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -507,11 +499,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -796,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AN1" sqref="AN1"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1:AM1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,7 +980,7 @@
       <c r="J2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>97</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -1058,7 +1049,7 @@
       <c r="AG2" s="4">
         <v>2</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AH2" s="8" t="s">
         <v>108</v>
       </c>
       <c r="AI2" s="4"/>
@@ -1098,7 +1089,7 @@
       <c r="J3" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>98</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -1167,7 +1158,7 @@
       <c r="AG3" s="4">
         <v>2</v>
       </c>
-      <c r="AH3" s="9" t="s">
+      <c r="AH3" s="8" t="s">
         <v>108</v>
       </c>
       <c r="AI3" s="4"/>
@@ -1207,7 +1198,7 @@
       <c r="J4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -1276,7 +1267,7 @@
       <c r="AG4" s="4">
         <v>2</v>
       </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AH4" s="8" t="s">
         <v>108</v>
       </c>
       <c r="AI4" s="4"/>
@@ -1316,7 +1307,7 @@
       <c r="J5" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>100</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -1385,7 +1376,7 @@
       <c r="AG5" s="4">
         <v>2</v>
       </c>
-      <c r="AH5" s="9" t="s">
+      <c r="AH5" s="8" t="s">
         <v>108</v>
       </c>
       <c r="AI5" s="4"/>
@@ -1425,7 +1416,7 @@
       <c r="J6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>101</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -1494,7 +1485,7 @@
       <c r="AG6" s="4">
         <v>2</v>
       </c>
-      <c r="AH6" s="9" t="s">
+      <c r="AH6" s="8" t="s">
         <v>108</v>
       </c>
       <c r="AI6" s="4"/>
@@ -1534,7 +1525,7 @@
       <c r="J7" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="7" t="s">
         <v>102</v>
       </c>
       <c r="L7" s="4" t="s">
@@ -1603,7 +1594,7 @@
       <c r="AG7" s="4">
         <v>2</v>
       </c>
-      <c r="AH7" s="9" t="s">
+      <c r="AH7" s="8" t="s">
         <v>108</v>
       </c>
       <c r="AI7" s="4"/>
@@ -1643,7 +1634,7 @@
       <c r="J8" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>103</v>
       </c>
       <c r="L8" s="4" t="s">
@@ -1712,7 +1703,7 @@
       <c r="AG8" s="4">
         <v>2</v>
       </c>
-      <c r="AH8" s="9" t="s">
+      <c r="AH8" s="8" t="s">
         <v>108</v>
       </c>
       <c r="AI8" s="4"/>
@@ -1752,7 +1743,7 @@
       <c r="J9" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="7" t="s">
         <v>104</v>
       </c>
       <c r="L9" s="4" t="s">
@@ -1821,7 +1812,7 @@
       <c r="AG9" s="4">
         <v>2</v>
       </c>
-      <c r="AH9" s="9" t="s">
+      <c r="AH9" s="8" t="s">
         <v>108</v>
       </c>
       <c r="AI9" s="4"/>
@@ -1861,7 +1852,7 @@
       <c r="J10" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="7" t="s">
         <v>105</v>
       </c>
       <c r="L10" s="4" t="s">
@@ -1930,7 +1921,7 @@
       <c r="AG10" s="4">
         <v>2</v>
       </c>
-      <c r="AH10" s="9" t="s">
+      <c r="AH10" s="8" t="s">
         <v>108</v>
       </c>
       <c r="AI10" s="4"/>
@@ -1970,7 +1961,7 @@
       <c r="J11" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="7" t="s">
         <v>106</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -2039,7 +2030,7 @@
       <c r="AG11" s="4">
         <v>2</v>
       </c>
-      <c r="AH11" s="9" t="s">
+      <c r="AH11" s="8" t="s">
         <v>108</v>
       </c>
       <c r="AI11" s="4"/>
@@ -2049,7 +2040,161 @@
       <c r="AM11" s="4"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="L12" s="7"/>
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <f>A12+1</f>
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <f>B12+1</f>
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:AM12" si="0">C12+1</f>
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="AM12">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/insezacweb/assets/files/beneficiarios.xlsx
+++ b/insezacweb/assets/files/beneficiarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\INSEZAC\Archivos de proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\INSEZAC\Archivos de proyecto\Catalogos pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="109">
   <si>
     <t>CURP</t>
   </si>
@@ -278,15 +278,6 @@
     <t>UAZ, GUADALUPE ,C.P. 98616</t>
   </si>
   <si>
-    <t>AAAE560802MZSLVR07</t>
-  </si>
-  <si>
-    <t>ERNESTINA</t>
-  </si>
-  <si>
-    <t>C DE LA FE</t>
-  </si>
-  <si>
     <t>3200200010000</t>
   </si>
   <si>
@@ -314,9 +305,6 @@
     <t>3200300010000</t>
   </si>
   <si>
-    <t>3200300010001</t>
-  </si>
-  <si>
     <t>320010001</t>
   </si>
   <si>
@@ -342,9 +330,6 @@
   </si>
   <si>
     <t>320010016</t>
-  </si>
-  <si>
-    <t>320010017</t>
   </si>
   <si>
     <t>Email</t>
@@ -785,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM12"/>
+  <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1:AM1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AN9" sqref="AN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,22 +916,22 @@
         <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="AM1" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="24" x14ac:dyDescent="0.25">
@@ -978,10 +963,10 @@
         <v>0</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>38</v>
@@ -1050,13 +1035,15 @@
         <v>2</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AI2" s="4"/>
       <c r="AJ2" s="4"/>
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
+      <c r="AM2" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:39" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1087,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>38</v>
@@ -1159,13 +1146,15 @@
         <v>2</v>
       </c>
       <c r="AH3" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
+      <c r="AM3" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:39" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1196,10 +1185,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>38</v>
@@ -1268,13 +1257,15 @@
         <v>2</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AI4" s="4"/>
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4"/>
       <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
+      <c r="AM4" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:39" ht="36" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1305,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>38</v>
@@ -1377,13 +1368,15 @@
         <v>2</v>
       </c>
       <c r="AH5" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
+      <c r="AM5" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:39" ht="36" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1414,10 +1407,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>38</v>
@@ -1486,13 +1479,15 @@
         <v>2</v>
       </c>
       <c r="AH6" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
+      <c r="AM6" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:39" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1523,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>38</v>
@@ -1595,13 +1590,15 @@
         <v>2</v>
       </c>
       <c r="AH7" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AI7" s="4"/>
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
+      <c r="AM7" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:39" ht="48" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -1632,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>38</v>
@@ -1704,13 +1701,15 @@
         <v>2</v>
       </c>
       <c r="AH8" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
+      <c r="AM8" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:39" ht="48" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1741,10 +1740,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>38</v>
@@ -1813,13 +1812,15 @@
         <v>2</v>
       </c>
       <c r="AH9" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AI9" s="4"/>
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
+      <c r="AM9" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:39" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -1850,10 +1851,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>38</v>
@@ -1922,284 +1923,20 @@
         <v>2</v>
       </c>
       <c r="AH10" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AI10" s="4"/>
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
-    </row>
-    <row r="11" spans="1:39" ht="24" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
-        <v>5</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="4">
-        <v>14</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N11" s="4">
-        <v>2</v>
-      </c>
-      <c r="O11" s="4">
-        <v>2</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>4</v>
-      </c>
-      <c r="R11" s="4">
-        <v>1</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U11" s="4">
-        <v>1</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC11" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD11" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="4">
-        <v>2</v>
-      </c>
-      <c r="AH11" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <f>A12+1</f>
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <f>B12+1</f>
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ref="D12:AM12" si="0">C12+1</f>
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
+      <c r="AM10" s="4">
         <v>9</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="AE12">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="AF12">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="AG12">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="AH12">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="AI12">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="AJ12">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="AK12">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="AL12">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="AM12">
-        <f t="shared" si="0"/>
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AH2" r:id="rId1"/>
-    <hyperlink ref="AH3:AH11" r:id="rId2" display="example@hotmail.com"/>
+    <hyperlink ref="AH3:AH10" r:id="rId2" display="example@hotmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/insezacweb/assets/files/beneficiarios.xlsx
+++ b/insezacweb/assets/files/beneficiarios.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="109">
   <si>
     <t>CURP</t>
   </si>
@@ -462,32 +462,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -772,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AN9" sqref="AN9"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,6 +798,7 @@
     <col min="15" max="15" width="24.28515625" customWidth="1"/>
     <col min="16" max="16" width="25.5703125" customWidth="1"/>
     <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.85546875" customWidth="1"/>
     <col min="22" max="22" width="17.5703125" customWidth="1"/>
     <col min="23" max="23" width="24.7109375" customWidth="1"/>
     <col min="24" max="24" width="17.7109375" customWidth="1"/>
@@ -816,1120 +821,1174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>0</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>0</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="4">
-        <v>2</v>
-      </c>
-      <c r="O2" s="4">
-        <v>2</v>
-      </c>
-      <c r="P2" s="4" t="s">
+      <c r="N2" s="5">
+        <v>2</v>
+      </c>
+      <c r="O2" s="5">
+        <v>2</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="5">
         <v>4</v>
       </c>
-      <c r="R2" s="4">
-        <v>1</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="4">
-        <v>1</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC2" s="4">
+      <c r="R2" s="5">
+        <v>1</v>
+      </c>
+      <c r="S2" s="5">
+        <v>1</v>
+      </c>
+      <c r="T2" s="5">
+        <v>1</v>
+      </c>
+      <c r="U2" s="5">
+        <v>1</v>
+      </c>
+      <c r="V2" s="5">
+        <v>1</v>
+      </c>
+      <c r="W2" s="5">
+        <v>1</v>
+      </c>
+      <c r="X2" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="5">
         <v>3</v>
       </c>
-      <c r="AD2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="4">
+      <c r="AD2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="5">
         <v>2</v>
       </c>
       <c r="AH2" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4">
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="5">
+        <v>123456789</v>
+      </c>
+      <c r="AM2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="24" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>32</v>
       </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="5">
+        <v>123</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="4">
-        <v>2</v>
-      </c>
-      <c r="O3" s="4">
-        <v>2</v>
-      </c>
-      <c r="P3" s="4" t="s">
+      <c r="N3" s="5">
+        <v>2</v>
+      </c>
+      <c r="O3" s="5">
+        <v>2</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="5">
         <v>4</v>
       </c>
-      <c r="R3" s="4">
-        <v>1</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U3" s="4">
-        <v>1</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="4">
+      <c r="R3" s="5">
+        <v>1</v>
+      </c>
+      <c r="S3" s="5">
+        <v>1</v>
+      </c>
+      <c r="T3" s="5">
+        <v>1</v>
+      </c>
+      <c r="U3" s="5">
+        <v>1</v>
+      </c>
+      <c r="V3" s="5">
+        <v>1</v>
+      </c>
+      <c r="W3" s="5">
+        <v>1</v>
+      </c>
+      <c r="X3" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="5">
         <v>2</v>
       </c>
       <c r="AH3" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4">
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="5">
+        <v>123456789</v>
+      </c>
+      <c r="AM3" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="24" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>149</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <v>0</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="4">
-        <v>2</v>
-      </c>
-      <c r="O4" s="4">
-        <v>2</v>
-      </c>
-      <c r="P4" s="4" t="s">
+      <c r="N4" s="5">
+        <v>2</v>
+      </c>
+      <c r="O4" s="5">
+        <v>2</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="5">
         <v>4</v>
       </c>
-      <c r="R4" s="4">
-        <v>1</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U4" s="4">
-        <v>1</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC4" s="4">
+      <c r="R4" s="5">
+        <v>1</v>
+      </c>
+      <c r="S4" s="5">
+        <v>1</v>
+      </c>
+      <c r="T4" s="5">
+        <v>1</v>
+      </c>
+      <c r="U4" s="5">
+        <v>1</v>
+      </c>
+      <c r="V4" s="5">
+        <v>1</v>
+      </c>
+      <c r="W4" s="5">
+        <v>1</v>
+      </c>
+      <c r="X4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="5">
         <v>3</v>
       </c>
-      <c r="AD4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="4">
+      <c r="AD4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="5">
         <v>2</v>
       </c>
       <c r="AH4" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4">
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>123456789</v>
+      </c>
+      <c r="AM4" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="36" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
         <v>5</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <v>0</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="4">
-        <v>2</v>
-      </c>
-      <c r="O5" s="4">
-        <v>1</v>
-      </c>
-      <c r="P5" s="4" t="s">
+      <c r="N5" s="5">
+        <v>2</v>
+      </c>
+      <c r="O5" s="5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="5">
         <v>4</v>
       </c>
-      <c r="R5" s="4">
-        <v>1</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U5" s="4">
-        <v>1</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC5" s="4">
+      <c r="R5" s="5">
+        <v>1</v>
+      </c>
+      <c r="S5" s="5">
+        <v>1</v>
+      </c>
+      <c r="T5" s="5">
+        <v>1</v>
+      </c>
+      <c r="U5" s="5">
+        <v>1</v>
+      </c>
+      <c r="V5" s="5">
+        <v>1</v>
+      </c>
+      <c r="W5" s="5">
+        <v>1</v>
+      </c>
+      <c r="X5" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="5">
         <v>4</v>
       </c>
-      <c r="AD5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="4">
+      <c r="AD5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="5">
         <v>2</v>
       </c>
       <c r="AH5" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4">
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>123456789</v>
+      </c>
+      <c r="AM5" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="36" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
         <v>5</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>6</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <v>0</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="4">
-        <v>2</v>
-      </c>
-      <c r="O6" s="4">
-        <v>1</v>
-      </c>
-      <c r="P6" s="4" t="s">
+      <c r="N6" s="5">
+        <v>2</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1</v>
+      </c>
+      <c r="P6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="5">
         <v>4</v>
       </c>
-      <c r="R6" s="4">
-        <v>1</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U6" s="4">
-        <v>1</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC6" s="4">
+      <c r="R6" s="5">
+        <v>1</v>
+      </c>
+      <c r="S6" s="5">
+        <v>1</v>
+      </c>
+      <c r="T6" s="5">
+        <v>1</v>
+      </c>
+      <c r="U6" s="5">
+        <v>1</v>
+      </c>
+      <c r="V6" s="5">
+        <v>1</v>
+      </c>
+      <c r="W6" s="5">
+        <v>1</v>
+      </c>
+      <c r="X6" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="5">
         <v>3</v>
       </c>
-      <c r="AD6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="4">
+      <c r="AD6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="5">
         <v>2</v>
       </c>
       <c r="AH6" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4">
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>123456789</v>
+      </c>
+      <c r="AM6" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
         <v>5</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>6</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <v>0</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="4">
-        <v>2</v>
-      </c>
-      <c r="O7" s="4">
-        <v>2</v>
-      </c>
-      <c r="P7" s="4" t="s">
+      <c r="N7" s="5">
+        <v>2</v>
+      </c>
+      <c r="O7" s="5">
+        <v>2</v>
+      </c>
+      <c r="P7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="5">
         <v>4</v>
       </c>
-      <c r="R7" s="4">
-        <v>1</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U7" s="4">
-        <v>1</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC7" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="4">
+      <c r="R7" s="5">
+        <v>1</v>
+      </c>
+      <c r="S7" s="5">
+        <v>1</v>
+      </c>
+      <c r="T7" s="5">
+        <v>1</v>
+      </c>
+      <c r="U7" s="5">
+        <v>1</v>
+      </c>
+      <c r="V7" s="5">
+        <v>1</v>
+      </c>
+      <c r="W7" s="5">
+        <v>1</v>
+      </c>
+      <c r="X7" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="5">
         <v>2</v>
       </c>
       <c r="AH7" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4">
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>123456789</v>
+      </c>
+      <c r="AM7" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="48" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
         <v>5</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>475</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <v>0</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="N8" s="4">
-        <v>2</v>
-      </c>
-      <c r="O8" s="4">
-        <v>2</v>
-      </c>
-      <c r="P8" s="4" t="s">
+      <c r="N8" s="5">
+        <v>2</v>
+      </c>
+      <c r="O8" s="5">
+        <v>2</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="5">
         <v>4</v>
       </c>
-      <c r="R8" s="4">
-        <v>1</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U8" s="4">
-        <v>1</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC8" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD8" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="4">
+      <c r="R8" s="5">
+        <v>1</v>
+      </c>
+      <c r="S8" s="5">
+        <v>1</v>
+      </c>
+      <c r="T8" s="5">
+        <v>1</v>
+      </c>
+      <c r="U8" s="5">
+        <v>1</v>
+      </c>
+      <c r="V8" s="5">
+        <v>1</v>
+      </c>
+      <c r="W8" s="5">
+        <v>1</v>
+      </c>
+      <c r="X8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="5">
         <v>2</v>
       </c>
       <c r="AH8" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4">
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL8" s="5">
+        <v>123456789</v>
+      </c>
+      <c r="AM8" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="48" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
         <v>5</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>7</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="5">
         <v>0</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N9" s="4">
-        <v>2</v>
-      </c>
-      <c r="O9" s="4">
-        <v>2</v>
-      </c>
-      <c r="P9" s="4" t="s">
+      <c r="N9" s="5">
+        <v>2</v>
+      </c>
+      <c r="O9" s="5">
+        <v>2</v>
+      </c>
+      <c r="P9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="5">
         <v>4</v>
       </c>
-      <c r="R9" s="4">
-        <v>1</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U9" s="4">
-        <v>1</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC9" s="4">
+      <c r="R9" s="5">
+        <v>1</v>
+      </c>
+      <c r="S9" s="5">
+        <v>1</v>
+      </c>
+      <c r="T9" s="5">
+        <v>1</v>
+      </c>
+      <c r="U9" s="5">
+        <v>1</v>
+      </c>
+      <c r="V9" s="5">
+        <v>1</v>
+      </c>
+      <c r="W9" s="5">
+        <v>1</v>
+      </c>
+      <c r="X9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="5">
         <v>4</v>
       </c>
-      <c r="AD9" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="4">
+      <c r="AD9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="5">
         <v>2</v>
       </c>
       <c r="AH9" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4">
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL9" s="5">
+        <v>123456789</v>
+      </c>
+      <c r="AM9" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="24" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
         <v>5</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>7</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="5">
         <v>0</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="N10" s="4">
-        <v>2</v>
-      </c>
-      <c r="O10" s="4">
-        <v>1</v>
-      </c>
-      <c r="P10" s="4" t="s">
+      <c r="N10" s="5">
+        <v>2</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1</v>
+      </c>
+      <c r="P10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="5">
         <v>4</v>
       </c>
-      <c r="R10" s="4">
-        <v>1</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U10" s="4">
-        <v>1</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC10" s="4">
+      <c r="R10" s="5">
+        <v>1</v>
+      </c>
+      <c r="S10" s="5">
+        <v>1</v>
+      </c>
+      <c r="T10" s="5">
+        <v>1</v>
+      </c>
+      <c r="U10" s="5">
+        <v>1</v>
+      </c>
+      <c r="V10" s="5">
+        <v>1</v>
+      </c>
+      <c r="W10" s="5">
+        <v>1</v>
+      </c>
+      <c r="X10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="5">
         <v>4</v>
       </c>
-      <c r="AD10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="4">
+      <c r="AD10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="5">
         <v>2</v>
       </c>
       <c r="AH10" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="4">
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL10" s="5">
+        <v>123456789</v>
+      </c>
+      <c r="AM10" s="5">
         <v>9</v>
       </c>
     </row>

--- a/insezacweb/assets/files/beneficiarios.xlsx
+++ b/insezacweb/assets/files/beneficiarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\INSEZAC\Archivos de proyecto\Catalogos pruebas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\INSEZAC\insezacweb\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>CURP</t>
   </si>
@@ -125,18 +125,9 @@
     <t>Beneficiario colectivo (+)</t>
   </si>
   <si>
-    <t>AAAA660224MZSNLN00</t>
-  </si>
-  <si>
-    <t>ANDRADE</t>
-  </si>
-  <si>
     <t>ALMEDA</t>
   </si>
   <si>
-    <t>MA. ANGELICA</t>
-  </si>
-  <si>
     <t>MANUEL M PONCE</t>
   </si>
   <si>
@@ -152,9 +143,6 @@
     <t>ARAUJO</t>
   </si>
   <si>
-    <t>AGUSTINA</t>
-  </si>
-  <si>
     <t>LEOBARDO RUIZ NO.</t>
   </si>
   <si>
@@ -164,9 +152,6 @@
     <t>AAAA830602MZSRVL02</t>
   </si>
   <si>
-    <t>ARANDA</t>
-  </si>
-  <si>
     <t>DE AVILA</t>
   </si>
   <si>
@@ -179,105 +164,6 @@
     <t>EJIDAL, GUADALUPE ,C.P. 98613</t>
   </si>
   <si>
-    <t>AAAB940222MZSLLR02</t>
-  </si>
-  <si>
-    <t>ALVAREZ</t>
-  </si>
-  <si>
-    <t>ALVARADO</t>
-  </si>
-  <si>
-    <t>BRENDA ALEJANDRA</t>
-  </si>
-  <si>
-    <t>CERRO DE LA VIRGEN</t>
-  </si>
-  <si>
-    <t>6-B</t>
-  </si>
-  <si>
-    <t>LOS PIRULES, GUADALUPE ,C.P. 98619</t>
-  </si>
-  <si>
-    <t>AAAB960415MZSLNR09</t>
-  </si>
-  <si>
-    <t>ALFARO</t>
-  </si>
-  <si>
-    <t>ANAYA</t>
-  </si>
-  <si>
-    <t>BRENDA PAOLA</t>
-  </si>
-  <si>
-    <t>MATAMOROS</t>
-  </si>
-  <si>
-    <t>CASA BLANCA, GUADALUPE ,C.P. 98620</t>
-  </si>
-  <si>
-    <t>AAAC420716MZSLLR02</t>
-  </si>
-  <si>
-    <t>MA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>URUGUAY</t>
-  </si>
-  <si>
-    <t>LA BALLENA, VILLA HIDALGO ,C.P. 98980</t>
-  </si>
-  <si>
-    <t>AAAD710729HZSNGV09</t>
-  </si>
-  <si>
-    <t>AGUIRRE</t>
-  </si>
-  <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>IGNACIO ALVAREZ</t>
-  </si>
-  <si>
-    <t>SOMBRERETE CENTRO, SOMBRERETE ,C.P. 99100</t>
-  </si>
-  <si>
-    <t>AAAD740203HJCLRN09</t>
-  </si>
-  <si>
-    <t>ALBA</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>SIERRA CANDELAS</t>
-  </si>
-  <si>
-    <t>LOMAS DE PLATEROS, FRESNILLO ,C.P. 99011</t>
-  </si>
-  <si>
-    <t>AAAD980218MZSLGY05</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>DAYANA MICHELLE</t>
-  </si>
-  <si>
-    <t>EMILIANO ZAPATA</t>
-  </si>
-  <si>
-    <t>UAZ, GUADALUPE ,C.P. 98616</t>
-  </si>
-  <si>
     <t>3200200010000</t>
   </si>
   <si>
@@ -287,24 +173,6 @@
     <t>3200200010003</t>
   </si>
   <si>
-    <t>3200200010004</t>
-  </si>
-  <si>
-    <t>3200200010005</t>
-  </si>
-  <si>
-    <t>3200200010006</t>
-  </si>
-  <si>
-    <t>3200200010007</t>
-  </si>
-  <si>
-    <t>3200200010008</t>
-  </si>
-  <si>
-    <t>3200300010000</t>
-  </si>
-  <si>
     <t>320010001</t>
   </si>
   <si>
@@ -314,24 +182,6 @@
     <t>320010003</t>
   </si>
   <si>
-    <t>320010006</t>
-  </si>
-  <si>
-    <t>320010007</t>
-  </si>
-  <si>
-    <t>320010012</t>
-  </si>
-  <si>
-    <t>320010013</t>
-  </si>
-  <si>
-    <t>320010014</t>
-  </si>
-  <si>
-    <t>320010016</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -351,12 +201,18 @@
   </si>
   <si>
     <t>Clave Municipio</t>
+  </si>
+  <si>
+    <t>JULIETA</t>
+  </si>
+  <si>
+    <t>AAAA730807MZSRRG0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -774,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM10"/>
+  <dimension ref="A1:AM4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,45 +777,41 @@
         <v>32</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F2" s="6">
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
@@ -968,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N2" s="5">
         <v>2</v>
@@ -986,7 +838,7 @@
         <v>2</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="5">
         <v>4</v>
@@ -1040,7 +892,7 @@
         <v>2</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="AI2" s="9"/>
       <c r="AJ2" s="5">
@@ -1058,17 +910,13 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>41</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>42</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="6">
         <v>1</v>
       </c>
@@ -1076,7 +924,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H3" s="5">
         <v>32</v>
@@ -1085,16 +933,16 @@
         <v>123</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N3" s="5">
         <v>2</v>
@@ -1103,7 +951,7 @@
         <v>2</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="5">
         <v>4</v>
@@ -1157,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="AH3" s="8" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="5">
@@ -1175,25 +1023,25 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E4" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F4" s="6">
         <v>5</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H4" s="5">
         <v>149</v>
@@ -1202,16 +1050,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N4" s="5">
         <v>2</v>
@@ -1220,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="5">
         <v>4</v>
@@ -1274,7 +1122,7 @@
         <v>2</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="AI4" s="9"/>
       <c r="AJ4" s="5">
@@ -1288,714 +1136,12 @@
       </c>
       <c r="AM4" s="5">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>5</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" s="5">
-        <v>2</v>
-      </c>
-      <c r="O5" s="5">
-        <v>1</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>4</v>
-      </c>
-      <c r="R5" s="5">
-        <v>1</v>
-      </c>
-      <c r="S5" s="5">
-        <v>1</v>
-      </c>
-      <c r="T5" s="5">
-        <v>1</v>
-      </c>
-      <c r="U5" s="5">
-        <v>1</v>
-      </c>
-      <c r="V5" s="5">
-        <v>1</v>
-      </c>
-      <c r="W5" s="5">
-        <v>1</v>
-      </c>
-      <c r="X5" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="5">
-        <v>4</v>
-      </c>
-      <c r="AD5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="5">
-        <v>2</v>
-      </c>
-      <c r="AH5" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="5">
-        <v>2</v>
-      </c>
-      <c r="AL5" s="5">
-        <v>123456789</v>
-      </c>
-      <c r="AM5" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>5</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="5">
-        <v>6</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="N6" s="5">
-        <v>2</v>
-      </c>
-      <c r="O6" s="5">
-        <v>1</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>4</v>
-      </c>
-      <c r="R6" s="5">
-        <v>1</v>
-      </c>
-      <c r="S6" s="5">
-        <v>1</v>
-      </c>
-      <c r="T6" s="5">
-        <v>1</v>
-      </c>
-      <c r="U6" s="5">
-        <v>1</v>
-      </c>
-      <c r="V6" s="5">
-        <v>1</v>
-      </c>
-      <c r="W6" s="5">
-        <v>1</v>
-      </c>
-      <c r="X6" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="5">
-        <v>3</v>
-      </c>
-      <c r="AD6" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="5">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="5">
-        <v>2</v>
-      </c>
-      <c r="AH6" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="5">
-        <v>2</v>
-      </c>
-      <c r="AL6" s="5">
-        <v>123456789</v>
-      </c>
-      <c r="AM6" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
-        <v>5</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="5">
-        <v>6</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" s="5">
-        <v>2</v>
-      </c>
-      <c r="O7" s="5">
-        <v>2</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>4</v>
-      </c>
-      <c r="R7" s="5">
-        <v>1</v>
-      </c>
-      <c r="S7" s="5">
-        <v>1</v>
-      </c>
-      <c r="T7" s="5">
-        <v>1</v>
-      </c>
-      <c r="U7" s="5">
-        <v>1</v>
-      </c>
-      <c r="V7" s="5">
-        <v>1</v>
-      </c>
-      <c r="W7" s="5">
-        <v>1</v>
-      </c>
-      <c r="X7" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="5">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="5">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="5">
-        <v>2</v>
-      </c>
-      <c r="AH7" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="5">
-        <v>2</v>
-      </c>
-      <c r="AL7" s="5">
-        <v>123456789</v>
-      </c>
-      <c r="AM7" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>5</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="5">
-        <v>475</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N8" s="5">
-        <v>2</v>
-      </c>
-      <c r="O8" s="5">
-        <v>2</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>4</v>
-      </c>
-      <c r="R8" s="5">
-        <v>1</v>
-      </c>
-      <c r="S8" s="5">
-        <v>1</v>
-      </c>
-      <c r="T8" s="5">
-        <v>1</v>
-      </c>
-      <c r="U8" s="5">
-        <v>1</v>
-      </c>
-      <c r="V8" s="5">
-        <v>1</v>
-      </c>
-      <c r="W8" s="5">
-        <v>1</v>
-      </c>
-      <c r="X8" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="5">
-        <v>2</v>
-      </c>
-      <c r="AD8" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="5">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="5">
-        <v>2</v>
-      </c>
-      <c r="AH8" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="5">
-        <v>2</v>
-      </c>
-      <c r="AL8" s="5">
-        <v>123456789</v>
-      </c>
-      <c r="AM8" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
-        <v>5</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="5">
-        <v>7</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="N9" s="5">
-        <v>2</v>
-      </c>
-      <c r="O9" s="5">
-        <v>2</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>4</v>
-      </c>
-      <c r="R9" s="5">
-        <v>1</v>
-      </c>
-      <c r="S9" s="5">
-        <v>1</v>
-      </c>
-      <c r="T9" s="5">
-        <v>1</v>
-      </c>
-      <c r="U9" s="5">
-        <v>1</v>
-      </c>
-      <c r="V9" s="5">
-        <v>1</v>
-      </c>
-      <c r="W9" s="5">
-        <v>1</v>
-      </c>
-      <c r="X9" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="5">
-        <v>4</v>
-      </c>
-      <c r="AD9" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="5">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="5">
-        <v>2</v>
-      </c>
-      <c r="AH9" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK9" s="5">
-        <v>2</v>
-      </c>
-      <c r="AL9" s="5">
-        <v>123456789</v>
-      </c>
-      <c r="AM9" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>5</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="5">
-        <v>7</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="N10" s="5">
-        <v>2</v>
-      </c>
-      <c r="O10" s="5">
-        <v>1</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>4</v>
-      </c>
-      <c r="R10" s="5">
-        <v>1</v>
-      </c>
-      <c r="S10" s="5">
-        <v>1</v>
-      </c>
-      <c r="T10" s="5">
-        <v>1</v>
-      </c>
-      <c r="U10" s="5">
-        <v>1</v>
-      </c>
-      <c r="V10" s="5">
-        <v>1</v>
-      </c>
-      <c r="W10" s="5">
-        <v>1</v>
-      </c>
-      <c r="X10" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="5">
-        <v>4</v>
-      </c>
-      <c r="AD10" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="5">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="5">
-        <v>2</v>
-      </c>
-      <c r="AH10" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK10" s="5">
-        <v>2</v>
-      </c>
-      <c r="AL10" s="5">
-        <v>123456789</v>
-      </c>
-      <c r="AM10" s="5">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AH2" r:id="rId1"/>
-    <hyperlink ref="AH3:AH10" r:id="rId2" display="example@hotmail.com"/>
+    <hyperlink ref="AH3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/insezacweb/assets/files/beneficiarios.xlsx
+++ b/insezacweb/assets/files/beneficiarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\INSEZAC\insezacweb\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\INSEZAC\Archivos de proyecto\Catalogos originales\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
   <si>
     <t>CURP</t>
   </si>
@@ -125,9 +125,18 @@
     <t>Beneficiario colectivo (+)</t>
   </si>
   <si>
+    <t>AAAA660224MZSNLN00</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
     <t>ALMEDA</t>
   </si>
   <si>
+    <t>MA. ANGELICA</t>
+  </si>
+  <si>
     <t>MANUEL M PONCE</t>
   </si>
   <si>
@@ -143,6 +152,9 @@
     <t>ARAUJO</t>
   </si>
   <si>
+    <t>AGUSTINA</t>
+  </si>
+  <si>
     <t>LEOBARDO RUIZ NO.</t>
   </si>
   <si>
@@ -152,6 +164,9 @@
     <t>AAAA830602MZSRVL02</t>
   </si>
   <si>
+    <t>ARANDA</t>
+  </si>
+  <si>
     <t>DE AVILA</t>
   </si>
   <si>
@@ -164,6 +179,102 @@
     <t>EJIDAL, GUADALUPE ,C.P. 98613</t>
   </si>
   <si>
+    <t>AAAB940222MZSLLR02</t>
+  </si>
+  <si>
+    <t>ALVAREZ</t>
+  </si>
+  <si>
+    <t>ALVARADO</t>
+  </si>
+  <si>
+    <t>BRENDA ALEJANDRA</t>
+  </si>
+  <si>
+    <t>CERRO DE LA VIRGEN</t>
+  </si>
+  <si>
+    <t>6-B</t>
+  </si>
+  <si>
+    <t>LOS PIRULES, GUADALUPE ,C.P. 98619</t>
+  </si>
+  <si>
+    <t>AAAB960415MZSLNR09</t>
+  </si>
+  <si>
+    <t>ALFARO</t>
+  </si>
+  <si>
+    <t>ANAYA</t>
+  </si>
+  <si>
+    <t>BRENDA PAOLA</t>
+  </si>
+  <si>
+    <t>MATAMOROS</t>
+  </si>
+  <si>
+    <t>CASA BLANCA, GUADALUPE ,C.P. 98620</t>
+  </si>
+  <si>
+    <t>AAAC420716MZSLLR02</t>
+  </si>
+  <si>
+    <t>MA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>URUGUAY</t>
+  </si>
+  <si>
+    <t>LA BALLENA, VILLA HIDALGO ,C.P. 98980</t>
+  </si>
+  <si>
+    <t>AAAD710729HZSNGV09</t>
+  </si>
+  <si>
+    <t>AGUIRRE</t>
+  </si>
+  <si>
+    <t>IGNACIO ALVAREZ</t>
+  </si>
+  <si>
+    <t>SOMBRERETE CENTRO, SOMBRERETE ,C.P. 99100</t>
+  </si>
+  <si>
+    <t>AAAD740203HJCLRN09</t>
+  </si>
+  <si>
+    <t>ALBA</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>SIERRA CANDELAS</t>
+  </si>
+  <si>
+    <t>LOMAS DE PLATEROS, FRESNILLO ,C.P. 99011</t>
+  </si>
+  <si>
+    <t>AAAD980218MZSLGY05</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>DAYANA MICHELLE</t>
+  </si>
+  <si>
+    <t>EMILIANO ZAPATA</t>
+  </si>
+  <si>
+    <t>UAZ, GUADALUPE ,C.P. 98616</t>
+  </si>
+  <si>
     <t>3200200010000</t>
   </si>
   <si>
@@ -173,6 +284,24 @@
     <t>3200200010003</t>
   </si>
   <si>
+    <t>3200200010004</t>
+  </si>
+  <si>
+    <t>3200200010005</t>
+  </si>
+  <si>
+    <t>3200200010006</t>
+  </si>
+  <si>
+    <t>3200200010007</t>
+  </si>
+  <si>
+    <t>3200200010008</t>
+  </si>
+  <si>
+    <t>3200300010000</t>
+  </si>
+  <si>
     <t>320010001</t>
   </si>
   <si>
@@ -182,6 +311,24 @@
     <t>320010003</t>
   </si>
   <si>
+    <t>320010006</t>
+  </si>
+  <si>
+    <t>320010007</t>
+  </si>
+  <si>
+    <t>320010012</t>
+  </si>
+  <si>
+    <t>320010013</t>
+  </si>
+  <si>
+    <t>320010014</t>
+  </si>
+  <si>
+    <t>320010016</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
@@ -201,12 +348,6 @@
   </si>
   <si>
     <t>Clave Municipio</t>
-  </si>
-  <si>
-    <t>JULIETA</t>
-  </si>
-  <si>
-    <t>AAAA730807MZSRRG0</t>
   </si>
 </sst>
 </file>
@@ -630,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM4"/>
+  <dimension ref="A1:AM10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,41 +918,45 @@
         <v>32</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E2" s="6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F2" s="6">
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
@@ -820,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N2" s="5">
         <v>2</v>
@@ -838,7 +983,7 @@
         <v>2</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="5">
         <v>4</v>
@@ -892,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="AI2" s="9"/>
       <c r="AJ2" s="5">
@@ -910,13 +1055,15 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="E3" s="6">
         <v>1</v>
       </c>
@@ -924,7 +1071,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H3" s="5">
         <v>32</v>
@@ -933,16 +1080,16 @@
         <v>123</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N3" s="5">
         <v>2</v>
@@ -951,7 +1098,7 @@
         <v>2</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="5">
         <v>4</v>
@@ -1005,7 +1152,7 @@
         <v>2</v>
       </c>
       <c r="AH3" s="8" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="5">
@@ -1023,25 +1170,25 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E4" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F4" s="6">
         <v>5</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H4" s="5">
         <v>149</v>
@@ -1050,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N4" s="5">
         <v>2</v>
@@ -1068,7 +1215,7 @@
         <v>2</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="5">
         <v>4</v>
@@ -1122,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="AI4" s="9"/>
       <c r="AJ4" s="5">
@@ -1136,12 +1283,712 @@
       </c>
       <c r="AM4" s="5">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="5">
+        <v>2</v>
+      </c>
+      <c r="O5" s="5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>4</v>
+      </c>
+      <c r="R5" s="5">
+        <v>1</v>
+      </c>
+      <c r="S5" s="5">
+        <v>1</v>
+      </c>
+      <c r="T5" s="5">
+        <v>1</v>
+      </c>
+      <c r="U5" s="5">
+        <v>1</v>
+      </c>
+      <c r="V5" s="5">
+        <v>1</v>
+      </c>
+      <c r="W5" s="5">
+        <v>1</v>
+      </c>
+      <c r="X5" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>123456789</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="6">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="5">
+        <v>6</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="5">
+        <v>2</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>4</v>
+      </c>
+      <c r="R6" s="5">
+        <v>1</v>
+      </c>
+      <c r="S6" s="5">
+        <v>1</v>
+      </c>
+      <c r="T6" s="5">
+        <v>1</v>
+      </c>
+      <c r="U6" s="5">
+        <v>1</v>
+      </c>
+      <c r="V6" s="5">
+        <v>1</v>
+      </c>
+      <c r="W6" s="5">
+        <v>1</v>
+      </c>
+      <c r="X6" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>123456789</v>
+      </c>
+      <c r="AM6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="5">
+        <v>6</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="5">
+        <v>2</v>
+      </c>
+      <c r="O7" s="5">
+        <v>2</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>4</v>
+      </c>
+      <c r="R7" s="5">
+        <v>1</v>
+      </c>
+      <c r="S7" s="5">
+        <v>1</v>
+      </c>
+      <c r="T7" s="5">
+        <v>1</v>
+      </c>
+      <c r="U7" s="5">
+        <v>1</v>
+      </c>
+      <c r="V7" s="5">
+        <v>1</v>
+      </c>
+      <c r="W7" s="5">
+        <v>1</v>
+      </c>
+      <c r="X7" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>123456789</v>
+      </c>
+      <c r="AM7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="5">
+        <v>475</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="5">
+        <v>2</v>
+      </c>
+      <c r="O8" s="5">
+        <v>2</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>4</v>
+      </c>
+      <c r="R8" s="5">
+        <v>1</v>
+      </c>
+      <c r="S8" s="5">
+        <v>1</v>
+      </c>
+      <c r="T8" s="5">
+        <v>1</v>
+      </c>
+      <c r="U8" s="5">
+        <v>1</v>
+      </c>
+      <c r="V8" s="5">
+        <v>1</v>
+      </c>
+      <c r="W8" s="5">
+        <v>1</v>
+      </c>
+      <c r="X8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL8" s="5">
+        <v>123456789</v>
+      </c>
+      <c r="AM8" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="5">
+        <v>7</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" s="5">
+        <v>2</v>
+      </c>
+      <c r="O9" s="5">
+        <v>2</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>4</v>
+      </c>
+      <c r="R9" s="5">
+        <v>1</v>
+      </c>
+      <c r="S9" s="5">
+        <v>1</v>
+      </c>
+      <c r="T9" s="5">
+        <v>1</v>
+      </c>
+      <c r="U9" s="5">
+        <v>1</v>
+      </c>
+      <c r="V9" s="5">
+        <v>1</v>
+      </c>
+      <c r="W9" s="5">
+        <v>1</v>
+      </c>
+      <c r="X9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL9" s="5">
+        <v>123456789</v>
+      </c>
+      <c r="AM9" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>5</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="5">
+        <v>7</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="5">
+        <v>2</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>4</v>
+      </c>
+      <c r="R10" s="5">
+        <v>1</v>
+      </c>
+      <c r="S10" s="5">
+        <v>1</v>
+      </c>
+      <c r="T10" s="5">
+        <v>1</v>
+      </c>
+      <c r="U10" s="5">
+        <v>1</v>
+      </c>
+      <c r="V10" s="5">
+        <v>1</v>
+      </c>
+      <c r="W10" s="5">
+        <v>1</v>
+      </c>
+      <c r="X10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH10" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL10" s="5">
+        <v>123456789</v>
+      </c>
+      <c r="AM10" s="5">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AH2" r:id="rId1"/>
-    <hyperlink ref="AH3" r:id="rId2"/>
+    <hyperlink ref="AH3:AH10" r:id="rId2" display="example@hotmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/insezacweb/assets/files/beneficiarios.xlsx
+++ b/insezacweb/assets/files/beneficiarios.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
   <si>
     <t>CURP</t>
   </si>
@@ -164,9 +164,6 @@
     <t>AAAA830602MZSRVL02</t>
   </si>
   <si>
-    <t>ARANDA</t>
-  </si>
-  <si>
     <t>DE AVILA</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t>ALVARADO</t>
   </si>
   <si>
-    <t>BRENDA ALEJANDRA</t>
-  </si>
-  <si>
     <t>CERRO DE LA VIRGEN</t>
   </si>
   <si>
@@ -207,9 +201,6 @@
   </si>
   <si>
     <t>ANAYA</t>
-  </si>
-  <si>
-    <t>BRENDA PAOLA</t>
   </si>
   <si>
     <t>MATAMOROS</t>
@@ -774,7 +765,7 @@
   <dimension ref="A1:AM10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,22 +909,22 @@
         <v>32</v>
       </c>
       <c r="AH1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
@@ -965,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>38</v>
@@ -1037,7 +1028,7 @@
         <v>2</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AI2" s="9"/>
       <c r="AJ2" s="5">
@@ -1080,10 +1071,10 @@
         <v>123</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>38</v>
@@ -1152,7 +1143,7 @@
         <v>2</v>
       </c>
       <c r="AH3" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="5">
@@ -1172,14 +1163,12 @@
       <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -1188,7 +1177,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="5">
         <v>149</v>
@@ -1197,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>38</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N4" s="5">
         <v>2</v>
@@ -1269,7 +1258,7 @@
         <v>2</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AI4" s="9"/>
       <c r="AJ4" s="5">
@@ -1287,17 +1276,15 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="6">
         <v>1</v>
       </c>
@@ -1305,25 +1292,25 @@
         <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>38</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N5" s="5">
         <v>2</v>
@@ -1386,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="AH5" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="5">
@@ -1404,17 +1391,15 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="6">
         <v>8</v>
       </c>
@@ -1422,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H6" s="5">
         <v>6</v>
@@ -1431,16 +1416,16 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>38</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N6" s="5">
         <v>2</v>
@@ -1503,7 +1488,7 @@
         <v>2</v>
       </c>
       <c r="AH6" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="5">
@@ -1521,16 +1506,16 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
@@ -1539,7 +1524,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H7" s="5">
         <v>6</v>
@@ -1548,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>38</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N7" s="5">
         <v>2</v>
@@ -1620,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="AH7" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AI7" s="9"/>
       <c r="AJ7" s="5">
@@ -1638,13 +1623,13 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6">
@@ -1654,7 +1639,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H8" s="5">
         <v>475</v>
@@ -1663,16 +1648,16 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>38</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N8" s="5">
         <v>2</v>
@@ -1735,7 +1720,7 @@
         <v>2</v>
       </c>
       <c r="AH8" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AI8" s="9"/>
       <c r="AJ8" s="5">
@@ -1753,16 +1738,16 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
@@ -1771,7 +1756,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H9" s="5">
         <v>7</v>
@@ -1780,16 +1765,16 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>38</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N9" s="5">
         <v>2</v>
@@ -1852,7 +1837,7 @@
         <v>2</v>
       </c>
       <c r="AH9" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="5">
@@ -1870,16 +1855,16 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
@@ -1888,7 +1873,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H10" s="5">
         <v>7</v>
@@ -1897,16 +1882,16 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>38</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N10" s="5">
         <v>2</v>
@@ -1969,7 +1954,7 @@
         <v>2</v>
       </c>
       <c r="AH10" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AI10" s="9"/>
       <c r="AJ10" s="5">
